--- a/coleta_temp/coleta_temp.xlsx
+++ b/coleta_temp/coleta_temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01811362000559</t>
+          <t>33657248000189</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 19/04/2024 18:03:26
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 01.811.362/0001-25
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: NIKKEY CONTROLE DE PRAGAS E SERVICOS TECNICOS LTDA
+Data da consulta: 25/04/2024 16:17:56
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 33.657.248/0001-89
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: BANCO NACIONAL DE DESENVOLVIMENTO ECONOMICO E SOCIAL
 Situação Atual
 Situação no Simples Nacional: NÃO optante pelo Simples Nacional
 Situação no SIMEI: NÃO enquadrado no SIMEI
@@ -472,24 +472,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>consulta: 1 de 2</t>
+          <t>consulta: 1 de 100</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>09044679000195</t>
+          <t>90400888000142</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 19/04/2024 18:03:35
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 09.044.679/0001-95
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: DFX ADUANEIRA E LOGISTICA LTDA
+Data da consulta: 25/04/2024 16:18:02
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 90.400.888/0001-42
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: BANCO SANTANDER (BRASIL) S.A.
 Situação Atual
 Situação no Simples Nacional: NÃO optante pelo Simples Nacional
 Situação no SIMEI: NÃO enquadrado no SIMEI
@@ -498,7 +498,2551 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>consulta: 2 de 2</t>
+          <t>consulta: 2 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>60746948000112</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:18:08
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 60.746.948/0001-12
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: BANCO BRADESCO S.A.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>consulta: 3 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>00000000000191</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:18:13
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.000.000/0001-91
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: BANCO DO BRASIL SA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>consulta: 4 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>00360305000104</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:18:18
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.360.305/0001-04
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: CAIXA ECONOMICA FEDERAL
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>consulta: 5 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>05775816000100</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:18:24
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 05.775.816/0001-00
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: PELLIZZARO ASSESSORIA EMPRESARIAL DE NEGOCIOS DE EXPORTACAO E IMPORTACAO LTDA
+Situação Atual
+Situação no Simples Nacional: Optante pelo Simples Nacional desde 01/01/2020
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>consulta: 6 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>00070112000542</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:18:30
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.070.112/0014-33
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: ALL NATIONS COMERCIO EXTERIOR S.A.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>consulta: 7 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>00089189000130</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:18:35
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.089.189/0001-30
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: LIVING CONSULTORIA E DESENVOLVIMENTO DE SISTEMAS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>consulta: 8 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>00097225000108</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:18:41
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.097.225/0001-08
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: KYOCERA SOLAR DO BRASIL LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>consulta: 9 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>00099708000575</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:18:47
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.099.708/0001-41
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: HEUSI COMISSARIA DE DESPACHO E AGENCIAMENTO LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>consulta: 10 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>00146461000258</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:18:52
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.146.461/0001-77
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: DELTA AIR LINES INC
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>consulta: 11 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>00147913000135</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:18:58
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.147.913/0001-35
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: ASA ASSESSORIA DE COMERCIO EXTERIOR LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>consulta: 12 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>00154642000145</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:19:03
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.154.642/0001-45
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TAO LANCHONETE LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>consulta: 13 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>00154642000226</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+×
+Ocorreu um erro ao tentar consultar o CNPJ.
+CNPJ
+00154642000226
+</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>consulta: 14 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>00193082000138</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:19:14
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.193.082/0001-38
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: M.PEIXOTO-CONSTRUCOES E SERVICOS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>consulta: 15 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>00217453000174</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:19:20
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.217.453/0001-74
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: R MAGALHAES SERVICOS ADUANEIROS LTDA
+Situação Atual
+Situação no Simples Nacional: Optante pelo Simples Nacional desde 01/01/2015
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>consulta: 16 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>00316010000998</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:19:25
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.316.010/0001-30
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: BRASIF LOCADORA LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>consulta: 17 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>00345605000114</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:19:31
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.345.605/0001-14
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: LOCK CORPORATIVO LTDA.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>consulta: 18 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>00411210000849</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:19:36
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.411.210/0001-72
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: CARISMA COMERCIAL LTDA.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>consulta: 19 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>00419147000110</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:19:42
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.419.147/0001-10
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TASK LOGISTICA TRANSPORTES NACIONAIS E INTERNACIONAIS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>consulta: 20 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>00455985000140</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:19:47
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.455.985/0001-40
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: VALGROUP RJ INDUSTRIA DE EMBALAGENS RIGIDAS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>consulta: 21 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>00468285000190</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:19:53
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.468.285/0001-90
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TRANZIRAN TRANSPORTES LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>consulta: 22 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>00488897000144</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:19:58
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.488.897/0001-44
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: AD SERVICE CONSULTORIA EM COMERCIO EXTERIOR LTDA
+Situação Atual
+Situação no Simples Nacional: Optante pelo Simples Nacional desde 01/01/2022
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>consulta: 23 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>00517766000148</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:20:04
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.517.766/0001-48
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TROCALOR INDUSTRIA MECANICA LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>consulta: 24 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>00676486000182</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:20:09
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.676.486/0001-82
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: FEDERAL EXPRESS CORPORATION
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>consulta: 25 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>00711083000127</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:20:15
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.711.083/0001-27
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: EXPEDITORS INTERNATIONAL DO BRASIL LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>consulta: 26 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>00711083000399</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:20:21
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.711.083/0001-27
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: EXPEDITORS INTERNATIONAL DO BRASIL LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>consulta: 27 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>00711083000801</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:20:26
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.711.083/0001-27
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: EXPEDITORS INTERNATIONAL DO BRASIL LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>consulta: 28 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>00734589000151</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:20:32
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.734.589/0001-51
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: RIO LINK TECNOLOGIA LTDA
+Situação Atual
+Situação no Simples Nacional: Optante pelo Simples Nacional desde 01/01/2014
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>consulta: 29 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>00740230000278</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:20:37
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.740.230/0001-97
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TELSAN ENGENHARIA E SERVICOS S.A.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>consulta: 30 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>00746905000105</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:20:43
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.746.905/0001-05
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: INTERFREIGHT TRANSPORTES INTERNACIONAIS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>consulta: 31 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>00771482000183</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:20:48
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.771.482/0001-83
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: RIOPET EMBALAGENS S.A. - EM RECUPERACAO JUDICIAL
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>consulta: 32 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>00776574001390</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:20:54
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.776.574/0006-60
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: AMERICANAS S.A - EM RECUPERACAO JUDICIAL
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>consulta: 33 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>00785370000262</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:20:59
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.785.370/0001-81
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: LUFETEC INDUSTRIA COMERCIO E SERVICOS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>consulta: 34 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>00832397000188</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:21:05
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.832.397/0001-88
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: SISTAC SISTEMAS DE ACESSO S.A.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>consulta: 35 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>00897193000125</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:21:11
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.897.193/0001-25
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: EXCEL SANTOS LOGISTICA LTDA
+Situação Atual
+Situação no Simples Nacional: Optante pelo Simples Nacional desde 01/01/2020
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>consulta: 36 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>00955719000186</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:21:16
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.955.719/0001-86
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: IMPORIENTE COMERCIO EXTERIOR LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>consulta: 37 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>00973749001430</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:21:22
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.973.749/0001-15
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TOP SERVICE SERVICOS E SISTEMAS S/A
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>consulta: 38 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>00998107000170</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:21:27
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.998.107/0001-70
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: ELGIMAQ INDUSTRIA E COMERCIO LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>consulta: 39 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>00999042000188</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:21:33
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.999.042/0001-88
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: QUAKER CHEMICAL INDUSTRIA E COMERCIO LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>consulta: 40 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>01033306000107</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:21:39
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.033.306/0001-07
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: HELP STAR BLUE COMERCIO DE MATERIAIS MEDICOS E HOSPITALARES LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>consulta: 41 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>01050022000129</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:21:44
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.050.022/0001-29
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: STD - STANDARD ENGENHARIA LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>consulta: 42 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>01063218000158</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:21:49
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.063.218/0001-58
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: BRASILCO POWER EQUIPAMENTOS E SERVICOS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>consulta: 43 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>01092686000827</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:21:55
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.092.686/0023-66
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: JOHNSON CONTROLS BE DO BRASIL LTDA.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>consulta: 44 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>01092686002366</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:22:00
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.092.686/0023-66
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: JOHNSON CONTROLS BE DO BRASIL LTDA.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>consulta: 45 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>01125550000108</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:22:06
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.125.550/0001-08
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: WCA AUTOMACAO LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>consulta: 46 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>01126142000162</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:22:12
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.126.142/0001-62
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: ACELETRICA COMERCIO E REPRESENTACOES LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>consulta: 47 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01133144000189</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:22:17
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.133.144/0001-89
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: UNAMON CONSORCIO DE MONTAGEM NUCLEAR
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>consulta: 48 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01137526000180</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:22:23
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.137.526/0001-80
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: ASIA SHIPPING TRANSPORTES INTERNACIONAIS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>consulta: 49 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>01138264000179</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:22:28
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.138.264/0001-79
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: BIOVET SERVICOS LTDA
+Situação Atual
+Situação no Simples Nacional: Optante pelo Simples Nacional desde 01/07/2007
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>consulta: 50 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>01178298001754</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:22:34
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.178.298/0001-97
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: FAURECIA AUTOMOTIVE DO BRASIL LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>consulta: 51 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>01201163000103</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:22:40
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.201.163/0001-03
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: WORLDGATE CARGO SERVICE LTDA.
+Situação Atual
+Situação no Simples Nacional: Optante pelo Simples Nacional desde 01/01/2015
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>consulta: 52 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>01212194000151</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:22:45
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.212.194/0001-51
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: REVESTIMENTOS E PISOS SJ ORLEAN LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>consulta: 53 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>01255046000386</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:22:50
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.255.046/0001-14
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TRIAINA AGENCIA MARITIMA LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>consulta: 54 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>01291386000109</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:22:56
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.291.386/0001-09
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: GOLD FREIGHT TRANSPORTES NACIONAIS E INTERNACIONAIS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>consulta: 55 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>01337213000176</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:23:02
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.337.213/0001-76
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: CONECT COMERCIO IMPORTACAO E EXPORTACAO LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>consulta: 56 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>01341776000308</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:23:07
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.341.776/0003-08
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: MERCOSUL LINE NAVEGACAO E LOGISTICA LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>consulta: 57 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>01417222000177</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:23:14
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.417.222/0001-77
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: MRS LOGISTICA S/A
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>consulta: 58 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>01417222000509</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:23:18
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.417.222/0001-77
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: MRS LOGISTICA S/A
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>consulta: 59 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>01425120000101</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:23:24
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.425.120/0001-01
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: RIOPORT ASSESSORIA ADUANEIRA LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>consulta: 60 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>01461394000148</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:23:29
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.461.394/0001-48
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TRI-STAR SERVICOS AEROPORTUARIOS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>consulta: 61 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>01461394000733</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:23:35
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.461.394/0001-48
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TRI-STAR SERVICOS AEROPORTUARIOS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>consulta: 62 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>01473531000164</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:23:40
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.473.531/0001-64
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: USE-ULTRAFLUX SERVICOS E EQUIPAMENTOS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>consulta: 63 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>01505705000395</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:23:46
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.505.705/0001-23
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: ONESUBSEA DO BRASIL SERVICOS SUBMARINOS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>consulta: 64 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>01540795000193</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:23:51
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.540.795/0001-93
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TCW SERVICOS DE COMERCIO EXTERIOR LTDA
+Situação Atual
+Situação no Simples Nacional: Optante pelo Simples Nacional desde 01/01/2015
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>consulta: 65 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>01567613000178</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:23:57
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.567.613/0001-78
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: DELLY KOSMETIC COMERCIO E INDUSTRIA LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>consulta: 66 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>01581014000109</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:24:03
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.581.014/0001-09
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: CET LOGISTICS DESPACHO ADUANEIRO LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>consulta: 67 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>01598794000108</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:24:08
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.598.794/0001-08
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: ADKL ZELLER ELETRO SISTEMAS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>consulta: 68 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>01631729000129</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:24:14
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.631.729/0001-29
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: OPUS - COMERCIO EXTERIOR LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>consulta: 69 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>01655351000101</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:24:19
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.655.351/0001-01
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: WORLEY DO BRASIL ENGENHARIA LTDA.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>consulta: 70 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>01701201000189</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:24:25
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.701.201/0001-89
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: KIRTON BANK S.A. - BANCO MULTIPLO
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>consulta: 71 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>01704443000126</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:24:30
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.704.443/0001-26
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: PHOENIX (RIO) SERVICOS INTERNACIONAIS LTDA
+Situação Atual
+Situação no Simples Nacional: Optante pelo Simples Nacional desde 01/01/2018
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>consulta: 72 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>01705989000100</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:24:36
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.705.989/0001-00
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: ASSOCIACAO BRASILEIRA TERRA DOS HOMENS
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>consulta: 73 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>01708217000466</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:24:41
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.708.217/0001-13
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: CERVEJARIA CIDADE IMPERIAL S.A.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>consulta: 74 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>01732028000186</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:24:47
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.732.028/0001-86
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: CARGOLINK AGENCIAMENTO DE CARGAS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>consulta: 75 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>01785706000179</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:24:53
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.785.706/0001-79
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: VENTURA PETROLEO S.A.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>consulta: 76 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>01807662000130</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:24:58
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.807.662/0001-30
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TRAFFIC SINALIZACOES LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>consulta: 77 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>01856395000191</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:25:04
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.856.395/0001-91
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: INTERMEDICAL EQUIPAMENTOS UROLOGICOS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>consulta: 78 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>01950374000300</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:25:10
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.950.374/0001-30
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: MARINE PRODUCTION SYSTEMS DO BRASIL LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>consulta: 79 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>01954054000159</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:25:15
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.954.054/0001-59
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: EDELMAN DO BRASIL CONSULTORIA E COMUNICACAO LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>consulta: 80 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>01992029000160</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:25:20
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 01.992.029/0001-60
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: R C VIEIRA ENGENHARIA LTDA EM RECUPERACAO JUDICIAL EM RECUPERACAO JUDICIAL
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>consulta: 81 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>02012862000160</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:25:26
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.012.862/0001-60
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TAM LINHAS AEREAS S/A.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>consulta: 82 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>02013667000405</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:25:31
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.013.667/0001-54
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TARGET TRADING S.A.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>consulta: 83 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>02031413000169</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:25:37
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.031.413/0001-69
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: PETRO RIO JAGUAR PETROLEO S.A.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>consulta: 84 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>02036483000886</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:25:43
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.036.483/0006-14
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: CONTINENTAL DO BRASIL PRODUTOS AUTOMOTIVOS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>consulta: 85 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>02082558000199</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:25:48
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.082.558/0001-99
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: KNAUF DO BRASIL LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>consulta: 86 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>02082570000101</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:25:54
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.082.570/0001-01
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: SAN ASSESSORIA E COMERCIO EXTERIOR LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>consulta: 87 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>02148467000109</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:25:59
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.148.467/0001-09
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: AERO RIO TAXI AEREO LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>consulta: 88 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>02155413000170</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:26:05
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.155.413/0001-70
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: LOGIMEX COMERCIO EXTERIOR LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>consulta: 89 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>02167320000166</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:26:10
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.167.320/0001-66
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: FLYTOUR BUSINESS TRAVEL VIAGENS E TURISMO LTDA.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>consulta: 90 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>02180624000163</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:26:16
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.180.624/0001-63
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: GENERAL CABLE BRASIL INDUSTRIA E COMERCIO DE CONDUTORES ELETRICOS LTDA.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>consulta: 91 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>02214014000133</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:26:22
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.214.014/0001-33
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TELESPAZIO BRASIL S/A
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>consulta: 92 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>02217812000119</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:26:27
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.217.812/0001-19
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: DFX LOGISTICA INTERNACIONAL LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>consulta: 93 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>02220795000179</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:26:33
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.220.795/0001-79
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: BIOSYS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>consulta: 94 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>02243617000163</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:26:39
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.243.617/0001-63
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: ADUFAST SERVICOS ADUANEIROS LTDA
+Situação Atual
+Situação no Simples Nacional: Optante pelo Simples Nacional desde 01/01/2015
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>consulta: 95 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>02255486000134</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:26:44
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.255.486/0001-34
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: HEVILE LOGISTICA E CONSULTORIA INTERNACIONAL LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>consulta: 96 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>02275351000130</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:26:49
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.275.351/0001-30
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: PORT SERVICOS ADUANEIROS LTDA
+Situação Atual
+Situação no Simples Nacional: Optante pelo Simples Nacional desde 01/07/2007
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>consulta: 97 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>02283886000153</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:26:55
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.283.886/0001-53
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: AGGREKO ENERGIA LOCACAO DE GERADORES LTDA.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>consulta: 98 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>02290277000121</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:27:00
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.290.277/0001-21
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: KIMBERLY -CLARK BRASIL INDUSTRIA E COMERCIO DE PRODUTOS DE HIGIENE LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>consulta: 99 de 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>02290277002337</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 25/04/2024 16:27:06
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 02.290.277/0001-21
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: KIMBERLY -CLARK BRASIL INDUSTRIA E COMERCIO DE PRODUTOS DE HIGIENE LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>consulta: 100 de 100</t>
         </is>
       </c>
     </row>
